--- a/Colors/Colors_Master.xlsx
+++ b/Colors/Colors_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\808Projects\Lego\Colors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewa\Documents\Self\Training\R projects\LEGOMosaics\Colors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4B3AA-5A44-4933-AA0A-F98AC9462A41}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F962894A-0B7D-4648-8965-CE18BD15CDE9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11830" windowHeight="6190" xr2:uid="{A30B29F7-B580-406F-8677-17DD8856CE58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11832" windowHeight="6192" xr2:uid="{A30B29F7-B580-406F-8677-17DD8856CE58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1831,22 +1831,28 @@
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomLeft" activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="3.08984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="43" customFormat="1" ht="28.2" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>18</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>21</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>23</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>24</v>
       </c>
@@ -2091,7 +2097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>26</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>28</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>37</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>38</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>40</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>41</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>42</v>
       </c>
@@ -2319,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>44</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>47</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>48</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>49</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>102</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>106</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>111</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>113</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>113</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>119</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>124</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>126</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>135</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>138</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>140</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>141</v>
       </c>
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>143</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>151</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>154</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>191</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>192</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>194</v>
       </c>
@@ -3035,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>199</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>221</v>
       </c>
@@ -3098,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>222</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>226</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>268</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>283</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>297</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>308</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>311</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>312</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>315</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>316</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>321</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>322</v>
       </c>
@@ -3466,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>323</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>324</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>325</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>326</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>329</v>
       </c>
@@ -3619,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>330</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="44">
         <v>2</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="44">
         <v>3</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="44">
         <v>6</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="44">
         <v>9</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="44">
         <v>12</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="44">
         <v>22</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="44">
         <v>25</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="44">
         <v>27</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="44">
         <v>29</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="44">
         <v>36</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="44">
         <v>39</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="44">
         <v>45</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="44">
         <v>50</v>
       </c>
@@ -4039,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="44">
         <v>100</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="44">
         <v>101</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="44">
         <v>103</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="44">
         <v>104</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="44">
         <v>105</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="44">
         <v>107</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="44">
         <v>108</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="44">
         <v>110</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="44">
         <v>112</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="44">
         <v>115</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="44">
         <v>116</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="44">
         <v>118</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="44">
         <v>120</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="44">
         <v>121</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="44">
         <v>123</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="44">
         <v>125</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="44">
         <v>127</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="44">
         <v>128</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="44">
         <v>131</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="44">
         <v>133</v>
       </c>
@@ -4639,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="44">
         <v>134</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="44">
         <v>136</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="44">
         <v>137</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="44">
         <v>145</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="44">
         <v>146</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="44">
         <v>147</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="44">
         <v>148</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="44">
         <v>149</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="44">
         <v>150</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="44">
         <v>153</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="44">
         <v>157</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="44">
         <v>158</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="44">
         <v>168</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="44">
         <v>176</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="44">
         <v>178</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="44">
         <v>179</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="44">
         <v>180</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="44">
         <v>190</v>
       </c>
@@ -5179,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="44">
         <v>193</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="44">
         <v>195</v>
       </c>
@@ -5239,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="44">
         <v>196</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="44">
         <v>198</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="44">
         <v>200</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="44">
         <v>208</v>
       </c>
@@ -5359,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="44">
         <v>209</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="44">
         <v>210</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="44">
         <v>211</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="116">
         <v>212</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="44">
         <v>213</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="44">
         <v>216</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="44">
         <v>217</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="44">
         <v>218</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="44">
         <v>219</v>
       </c>
@@ -5632,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="44">
         <v>220</v>
       </c>
@@ -5662,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="44">
         <v>223</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="14.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="44">
         <v>224</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="44">
         <v>225</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="44">
         <v>232</v>
       </c>
